--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Dlk2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.076721</v>
+        <v>0.03385633333333334</v>
       </c>
       <c r="H2">
-        <v>0.230163</v>
+        <v>0.101569</v>
       </c>
       <c r="I2">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="J2">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>3.462501690974666</v>
+        <v>2.119025244353334</v>
       </c>
       <c r="R2">
-        <v>31.162515218772</v>
+        <v>19.07122719918</v>
       </c>
       <c r="S2">
-        <v>0.05047111424385158</v>
+        <v>0.01275369813067624</v>
       </c>
       <c r="T2">
-        <v>0.05047111424385159</v>
+        <v>0.01275369813067623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.076721</v>
+        <v>0.03385633333333334</v>
       </c>
       <c r="H3">
-        <v>0.230163</v>
+        <v>0.101569</v>
       </c>
       <c r="I3">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="J3">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>0.4386489162023333</v>
+        <v>0.1935720848692222</v>
       </c>
       <c r="R3">
-        <v>3.947840245821</v>
+        <v>1.742148763823</v>
       </c>
       <c r="S3">
-        <v>0.006393960649982429</v>
+        <v>0.001165045080763584</v>
       </c>
       <c r="T3">
-        <v>0.00639396064998243</v>
+        <v>0.001165045080763583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.076721</v>
+        <v>0.03385633333333334</v>
       </c>
       <c r="H4">
-        <v>0.230163</v>
+        <v>0.101569</v>
       </c>
       <c r="I4">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="J4">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>1.087246639061333</v>
+        <v>0.5459103865496666</v>
       </c>
       <c r="R4">
-        <v>9.785219751551999</v>
+        <v>4.913193478947</v>
       </c>
       <c r="S4">
-        <v>0.01584823755446642</v>
+        <v>0.003285650463583762</v>
       </c>
       <c r="T4">
-        <v>0.01584823755446643</v>
+        <v>0.003285650463583762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.076721</v>
+        <v>0.03385633333333334</v>
       </c>
       <c r="H5">
-        <v>0.230163</v>
+        <v>0.101569</v>
       </c>
       <c r="I5">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="J5">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>2.520928794926666</v>
+        <v>0.3851610124425556</v>
       </c>
       <c r="R5">
-        <v>22.68835915434</v>
+        <v>3.466449111983001</v>
       </c>
       <c r="S5">
-        <v>0.03674628825193252</v>
+        <v>0.002318154206745688</v>
       </c>
       <c r="T5">
-        <v>0.03674628825193253</v>
+        <v>0.002318154206745687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.076721</v>
+        <v>0.03385633333333334</v>
       </c>
       <c r="H6">
-        <v>0.230163</v>
+        <v>0.101569</v>
       </c>
       <c r="I6">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="J6">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>2.188936159814667</v>
+        <v>1.237349660136778</v>
       </c>
       <c r="R6">
-        <v>19.700425438332</v>
+        <v>11.136146941231</v>
       </c>
       <c r="S6">
-        <v>0.03190700160016532</v>
+        <v>0.007447190206691072</v>
       </c>
       <c r="T6">
-        <v>0.03190700160016532</v>
+        <v>0.007447190206691072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.076721</v>
+        <v>0.03385633333333334</v>
       </c>
       <c r="H7">
-        <v>0.230163</v>
+        <v>0.101569</v>
       </c>
       <c r="I7">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="J7">
-        <v>0.1591982918362138</v>
+        <v>0.0294461278699893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>1.22331864663</v>
+        <v>0.4114518321001112</v>
       </c>
       <c r="R7">
-        <v>11.00986781967</v>
+        <v>3.703066488901</v>
       </c>
       <c r="S7">
-        <v>0.01783168953581556</v>
+        <v>0.002476389781528959</v>
       </c>
       <c r="T7">
-        <v>0.01783168953581556</v>
+        <v>0.002476389781528959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.383168</v>
       </c>
       <c r="I8">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="J8">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>5.764262057443556</v>
+        <v>7.994000776106668</v>
       </c>
       <c r="R8">
-        <v>51.878358516992</v>
+        <v>71.94600698496001</v>
       </c>
       <c r="S8">
-        <v>0.08402269653501269</v>
+        <v>0.0481131940388795</v>
       </c>
       <c r="T8">
-        <v>0.08402269653501269</v>
+        <v>0.04811319403887949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.383168</v>
       </c>
       <c r="I9">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="J9">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>0.7302486842951111</v>
@@ -1013,10 +1013,10 @@
         <v>6.572238158655999</v>
       </c>
       <c r="S9">
-        <v>0.01064446116157883</v>
+        <v>0.004395120494501479</v>
       </c>
       <c r="T9">
-        <v>0.01064446116157883</v>
+        <v>0.004395120494501478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.383168</v>
       </c>
       <c r="I10">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="J10">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>1.810013426119111</v>
+        <v>2.059441276309333</v>
       </c>
       <c r="R10">
-        <v>16.290120835072</v>
+        <v>18.534971486784</v>
       </c>
       <c r="S10">
-        <v>0.0263836389309741</v>
+        <v>0.01239508232660027</v>
       </c>
       <c r="T10">
-        <v>0.0263836389309741</v>
+        <v>0.01239508232660027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.383168</v>
       </c>
       <c r="I11">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="J11">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>4.196761618915556</v>
+        <v>1.453015928241778</v>
       </c>
       <c r="R11">
-        <v>37.77085457024</v>
+        <v>13.077143354176</v>
       </c>
       <c r="S11">
-        <v>0.06117404525017697</v>
+        <v>0.008745212723275129</v>
       </c>
       <c r="T11">
-        <v>0.06117404525017697</v>
+        <v>0.008745212723275126</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.383168</v>
       </c>
       <c r="I12">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="J12">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>3.644070899683556</v>
+        <v>4.667888770936889</v>
       </c>
       <c r="R12">
-        <v>32.79663809715201</v>
+        <v>42.010998938432</v>
       </c>
       <c r="S12">
-        <v>0.05311775563028005</v>
+        <v>0.02809444788387603</v>
       </c>
       <c r="T12">
-        <v>0.05311775563028005</v>
+        <v>0.02809444788387603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.383168</v>
       </c>
       <c r="I13">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="J13">
-        <v>0.2650282238513505</v>
+        <v>0.1110852122565749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>2.03654175168</v>
+        <v>1.552197772963556</v>
       </c>
       <c r="R13">
-        <v>18.32887576512</v>
+        <v>13.969779956672</v>
       </c>
       <c r="S13">
-        <v>0.02968562634332789</v>
+        <v>0.009342154789442529</v>
       </c>
       <c r="T13">
-        <v>0.02968562634332788</v>
+        <v>0.009342154789442527</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2774773333333333</v>
+        <v>0.739432</v>
       </c>
       <c r="H14">
-        <v>0.8324319999999999</v>
+        <v>2.218296</v>
       </c>
       <c r="I14">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="J14">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>12.52285209882311</v>
+        <v>46.28011719568</v>
       </c>
       <c r="R14">
-        <v>112.705668889408</v>
+        <v>416.52105476112</v>
       </c>
       <c r="S14">
-        <v>0.1825392029658888</v>
+        <v>0.2785444136349336</v>
       </c>
       <c r="T14">
-        <v>0.1825392029658888</v>
+        <v>0.2785444136349335</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2774773333333333</v>
+        <v>0.739432</v>
       </c>
       <c r="H15">
-        <v>0.8324319999999999</v>
+        <v>2.218296</v>
       </c>
       <c r="I15">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="J15">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>1.586464351838222</v>
+        <v>4.227669678514666</v>
       </c>
       <c r="R15">
-        <v>14.278179166544</v>
+        <v>38.049027106632</v>
       </c>
       <c r="S15">
-        <v>0.0231250785390622</v>
+        <v>0.02544491766658659</v>
       </c>
       <c r="T15">
-        <v>0.0231250785390622</v>
+        <v>0.02544491766658659</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2774773333333333</v>
+        <v>0.739432</v>
       </c>
       <c r="H16">
-        <v>0.8324319999999999</v>
+        <v>2.218296</v>
       </c>
       <c r="I16">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="J16">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>3.932251900814221</v>
+        <v>11.922838925672</v>
       </c>
       <c r="R16">
-        <v>35.39026710732799</v>
+        <v>107.305550331048</v>
       </c>
       <c r="S16">
-        <v>0.05731842252638171</v>
+        <v>0.07175954553816621</v>
       </c>
       <c r="T16">
-        <v>0.05731842252638172</v>
+        <v>0.07175954553816621</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2774773333333333</v>
+        <v>0.739432</v>
       </c>
       <c r="H17">
-        <v>0.8324319999999999</v>
+        <v>2.218296</v>
       </c>
       <c r="I17">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="J17">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>9.117459359751109</v>
+        <v>8.412026634674667</v>
       </c>
       <c r="R17">
-        <v>82.05713423775998</v>
+        <v>75.708239712072</v>
       </c>
       <c r="S17">
-        <v>0.1329005366724134</v>
+        <v>0.050629150668089</v>
       </c>
       <c r="T17">
-        <v>0.1329005366724134</v>
+        <v>0.05062915066808898</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2774773333333333</v>
+        <v>0.739432</v>
       </c>
       <c r="H18">
-        <v>0.8324319999999999</v>
+        <v>2.218296</v>
       </c>
       <c r="I18">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="J18">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>7.91673946458311</v>
+        <v>27.02407035298933</v>
       </c>
       <c r="R18">
-        <v>71.25065518124801</v>
+        <v>243.216633176904</v>
       </c>
       <c r="S18">
-        <v>0.1153982575654159</v>
+        <v>0.1626487633701422</v>
       </c>
       <c r="T18">
-        <v>0.1153982575654159</v>
+        <v>0.1626487633701422</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2774773333333333</v>
+        <v>0.739432</v>
       </c>
       <c r="H19">
-        <v>0.8324319999999999</v>
+        <v>2.218296</v>
       </c>
       <c r="I19">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="J19">
-        <v>0.5757734843124357</v>
+        <v>0.6431118517410408</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>4.42438440432</v>
+        <v>8.986225652909333</v>
       </c>
       <c r="R19">
-        <v>39.81945963888</v>
+        <v>80.876030876184</v>
       </c>
       <c r="S19">
-        <v>0.06449198604327375</v>
+        <v>0.05408506086312323</v>
       </c>
       <c r="T19">
-        <v>0.06449198604327373</v>
+        <v>0.05408506086312322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.248761</v>
+      </c>
+      <c r="H20">
+        <v>0.746283</v>
+      </c>
+      <c r="I20">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="J20">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.58874</v>
+      </c>
+      <c r="N20">
+        <v>187.76622</v>
+      </c>
+      <c r="O20">
+        <v>0.4331197020873656</v>
+      </c>
+      <c r="P20">
+        <v>0.4331197020873655</v>
+      </c>
+      <c r="Q20">
+        <v>15.56963755114</v>
+      </c>
+      <c r="R20">
+        <v>140.12673796026</v>
+      </c>
+      <c r="S20">
+        <v>0.09370839628287621</v>
+      </c>
+      <c r="T20">
+        <v>0.09370839628287619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.248761</v>
+      </c>
+      <c r="H21">
+        <v>0.746283</v>
+      </c>
+      <c r="I21">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="J21">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N21">
+        <v>17.152367</v>
+      </c>
+      <c r="O21">
+        <v>0.03956530671562308</v>
+      </c>
+      <c r="P21">
+        <v>0.03956530671562306</v>
+      </c>
+      <c r="Q21">
+        <v>1.422279989095667</v>
+      </c>
+      <c r="R21">
+        <v>12.800519901861</v>
+      </c>
+      <c r="S21">
+        <v>0.008560223473771418</v>
+      </c>
+      <c r="T21">
+        <v>0.008560223473771417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.248761</v>
+      </c>
+      <c r="H22">
+        <v>0.746283</v>
+      </c>
+      <c r="I22">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="J22">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.124321</v>
+      </c>
+      <c r="N22">
+        <v>48.372963</v>
+      </c>
+      <c r="O22">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="P22">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="Q22">
+        <v>4.011102216280999</v>
+      </c>
+      <c r="R22">
+        <v>36.099919946529</v>
+      </c>
+      <c r="S22">
+        <v>0.02414147116654373</v>
+      </c>
+      <c r="T22">
+        <v>0.02414147116654373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.248761</v>
+      </c>
+      <c r="H23">
+        <v>0.746283</v>
+      </c>
+      <c r="I23">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="J23">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.37633566666667</v>
+      </c>
+      <c r="N23">
+        <v>34.129007</v>
+      </c>
+      <c r="O23">
+        <v>0.07872526455705194</v>
+      </c>
+      <c r="P23">
+        <v>0.07872526455705191</v>
+      </c>
+      <c r="Q23">
+        <v>2.829988636775667</v>
+      </c>
+      <c r="R23">
+        <v>25.469897730981</v>
+      </c>
+      <c r="S23">
+        <v>0.01703274695894212</v>
+      </c>
+      <c r="T23">
+        <v>0.01703274695894211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.248761</v>
+      </c>
+      <c r="H24">
+        <v>0.746283</v>
+      </c>
+      <c r="I24">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="J24">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>36.54706633333333</v>
+      </c>
+      <c r="N24">
+        <v>109.641199</v>
+      </c>
+      <c r="O24">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="P24">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="Q24">
+        <v>9.091484768146334</v>
+      </c>
+      <c r="R24">
+        <v>81.823362913317</v>
+      </c>
+      <c r="S24">
+        <v>0.05471857997046375</v>
+      </c>
+      <c r="T24">
+        <v>0.05471857997046375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.248761</v>
+      </c>
+      <c r="H25">
+        <v>0.746283</v>
+      </c>
+      <c r="I25">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="J25">
+        <v>0.2163568081323949</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.15287633333333</v>
+      </c>
+      <c r="N25">
+        <v>36.458629</v>
+      </c>
+      <c r="O25">
+        <v>0.08409899571389245</v>
+      </c>
+      <c r="P25">
+        <v>0.08409899571389244</v>
+      </c>
+      <c r="Q25">
+        <v>3.023161669556333</v>
+      </c>
+      <c r="R25">
+        <v>27.208455026007</v>
+      </c>
+      <c r="S25">
+        <v>0.01819539027979774</v>
+      </c>
+      <c r="T25">
+        <v>0.01819539027979773</v>
       </c>
     </row>
   </sheetData>
